--- a/도서정보/도서정보-테이블명세.xlsx
+++ b/도서정보/도서정보-테이블명세.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="8100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="8100"/>
   </bookViews>
   <sheets>
-    <sheet name="도서정보테이블" sheetId="3" r:id="rId1"/>
-    <sheet name="도서정보테이블 (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="도서-저자테이블" sheetId="6" r:id="rId3"/>
+    <sheet name="도서정보테이블" sheetId="7" r:id="rId1"/>
+    <sheet name="출판사정보테이블" sheetId="8" r:id="rId2"/>
+    <sheet name="저자정보테이블" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,11 +104,115 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경이력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자 칼럼을 2개로 분리하여 저자 데이터를 유지하기 위한 설계변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만약 저자가 3명 이상일 경우는 칼럼을 또 추가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>한글가변문자열(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PRIMARY KEY</t>
+    <t>bk_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_ccode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_isbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_acode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_price</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -116,11 +220,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서정보테이블_V1</t>
+    <t>페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_pages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_ceo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요장르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_genre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -128,47 +308,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 도서정보를 저장할 table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISBN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발행일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정문자열(13)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(15)</t>
+    <t>tbl_author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -176,159 +324,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>au_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_genre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021-04-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021-04-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 저자 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>가변문자열(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_isbn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_comp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_trans</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_pages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(13)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(15)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글가변문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서정보_V3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경이력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자 칼럼을 2개로 분리하여 저자 데이터를 유지하기 위한 설계변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_author1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_author2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">만약 저자가 3명 이상일 경우는 칼럼을 또 추가 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이슈발생</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서-저자정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_book_author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 각 도서의 저자들의 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서의 ISBN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ba_isbn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ba_author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ba_seq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -711,6 +771,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -726,13 +792,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
@@ -740,12 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1090,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1749,22 +1809,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27">
-        <v>44313</v>
-      </c>
-      <c r="K2" s="28"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28">
+        <v>44315</v>
+      </c>
+      <c r="K2" s="29"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -1774,20 +1834,20 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="32"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -1796,18 +1856,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="C4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1848,21 +1908,21 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="F6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1874,19 +1934,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1899,19 +1959,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1924,19 +1984,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1949,16 +2009,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1972,16 +2032,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -1995,16 +2055,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -2017,18 +2077,10 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -2156,14 +2208,58 @@
       <c r="K21" s="6"/>
       <c r="L21" s="17"/>
     </row>
+    <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="21">
+        <v>44314</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2179,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2836,22 +2932,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27">
-        <v>44313</v>
-      </c>
-      <c r="K2" s="28"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="29"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2861,20 +2957,20 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="32"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -2883,18 +2979,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="C4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2935,21 +3031,21 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2961,19 +3057,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -2986,20 +3082,18 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>22</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3011,20 +3105,18 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>22</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3036,20 +3128,18 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>22</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3061,16 +3151,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -3083,18 +3173,10 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -3106,18 +3188,10 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -3129,18 +3203,10 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -3255,47 +3321,47 @@
     </row>
     <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="31">
+        <v>27</v>
+      </c>
+      <c r="C24" s="21">
         <v>44314</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
+      <c r="D24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+        <v>30</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3320,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H8"/>
+    <sheetView showGridLines="0" topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3977,22 +4043,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27">
-        <v>44313</v>
-      </c>
-      <c r="K2" s="28"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="29"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -4002,20 +4068,20 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="32"/>
       <c r="L3" s="19">
         <v>1</v>
       </c>
@@ -4024,18 +4090,18 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="C4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4076,21 +4142,21 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="C6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -4102,25 +4168,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="18"/>
     </row>
@@ -4129,20 +4193,18 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>22</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -4153,10 +4215,18 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4168,10 +4238,18 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -4346,47 +4424,47 @@
     </row>
     <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="31">
+        <v>27</v>
+      </c>
+      <c r="C24" s="21">
         <v>44314</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
+      <c r="D24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+        <v>30</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
